--- a/PabloArriagada/pwt/data/Variable matching.xlsx
+++ b/PabloArriagada/pwt/data/Variable matching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Google Drive OWID\notebooks\PabloArriagada\pwt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1ACFB-B47A-4C03-BA85-5A69131D23EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49808D21-240F-42F8-B515-82F163B8B6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE5F1138-7094-45AE-856E-1162C38C34B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Entity</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>gdppc_o_growth</t>
+  </si>
+  <si>
+    <t>entity</t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,6 +790,9 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">

--- a/PabloArriagada/pwt/data/Variable matching.xlsx
+++ b/PabloArriagada/pwt/data/Variable matching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Google Drive OWID\notebooks\PabloArriagada\pwt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49808D21-240F-42F8-B515-82F163B8B6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D2E1D0-837F-4DB4-ACC9-64E2CCD61FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE5F1138-7094-45AE-856E-1162C38C34B1}"/>
   </bookViews>
@@ -378,9 +378,6 @@
     <t>gdppc_e</t>
   </si>
   <si>
-    <t>rgdpe_60</t>
-  </si>
-  <si>
     <t>ratio</t>
   </si>
   <si>
@@ -391,6 +388,9 @@
   </si>
   <si>
     <t>entity</t>
+  </si>
+  <si>
+    <t>gdppc_e_1960</t>
   </si>
 </sst>
 </file>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F4194C-63A4-4964-AE95-11A4AA3D5A0E}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1223,7 +1223,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1231,7 +1231,7 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1239,7 +1239,7 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
